--- a/planilha/planilha.xlsx
+++ b/planilha/planilha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="286">
   <si>
     <t>Submetido em</t>
   </si>
@@ -861,6 +861,18 @@
   <si>
     <t>Tainara Silva</t>
   </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>(41) 99651-6300</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>4199154-3358</t>
+  </si>
 </sst>
 </file>
 
@@ -1016,7 +1028,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32422,8 +32434,12 @@
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -32446,8 +32462,12 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
